--- a/Jogos_do_Dia/2023-12-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="K2" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="L2" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -718,10 +718,10 @@
         <v>2.9</v>
       </c>
       <c r="S2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="U2" t="n">
         <v>1.83</v>
@@ -830,13 +830,13 @@
         <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="M3" t="n">
         <v>1.25</v>
@@ -857,10 +857,10 @@
         <v>4.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.35</v>
+        <v>2.68</v>
       </c>
       <c r="U3" t="n">
         <v>1.6</v>
@@ -893,43 +893,43 @@
         <v>2.73</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>2.05</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -1108,13 +1108,13 @@
         <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="K5" t="n">
-        <v>4.48</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>5.6</v>
+        <v>4.85</v>
       </c>
       <c r="M5" t="n">
         <v>1.22</v>
@@ -1135,10 +1135,10 @@
         <v>6.6</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.9</v>
+        <v>2.53</v>
       </c>
       <c r="U5" t="n">
         <v>1.44</v>
@@ -1229,124 +1229,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Connah's Quay</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Pontypridd Town AFC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.48</v>
+        <v>1.48</v>
       </c>
       <c r="K6" t="n">
-        <v>3.83</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO6" t="n">
         <v>1.46</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="7">
@@ -1368,124 +1368,124 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connah's Quay</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pontypridd Town AFC</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.48</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="AB7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>1.49</v>
       </c>
-      <c r="AC7" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-12-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -718,10 +718,10 @@
         <v>2.9</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
         <v>1.83</v>
@@ -739,10 +739,10 @@
         <v>1.53</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AB2" t="n">
         <v>1.43</v>
@@ -830,13 +830,13 @@
         <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="L3" t="n">
-        <v>4.8</v>
+        <v>5.13</v>
       </c>
       <c r="M3" t="n">
         <v>1.25</v>
@@ -857,10 +857,10 @@
         <v>4.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.68</v>
+        <v>2.35</v>
       </c>
       <c r="U3" t="n">
         <v>1.6</v>
@@ -878,10 +878,10 @@
         <v>2.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AB3" t="n">
         <v>1.46</v>
@@ -969,13 +969,13 @@
         <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>5.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="T4" t="n">
-        <v>2.05</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -1111,10 +1111,10 @@
         <v>1.59</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="L5" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.22</v>
@@ -1135,10 +1135,10 @@
         <v>6.6</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.53</v>
+        <v>2.9</v>
       </c>
       <c r="U5" t="n">
         <v>1.44</v>
@@ -1229,124 +1229,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connah's Quay</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pontypridd Town AFC</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>1.95</v>
       </c>
       <c r="J6" t="n">
-        <v>1.48</v>
+        <v>4.48</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.83</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="N6" t="n">
-        <v>2.87</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P6" t="n">
-        <v>9.699999999999999</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="R6" t="n">
-        <v>3.48</v>
+        <v>4.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL6" t="n">
         <v>1.84</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AM6" t="n">
         <v>1.93</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AN6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>1.35</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.27</v>
       </c>
     </row>
     <row r="7">
@@ -1368,124 +1368,124 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Connah's Quay</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Pontypridd Town AFC</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.48</v>
+        <v>1.52</v>
       </c>
       <c r="K7" t="n">
-        <v>3.83</v>
+        <v>4.05</v>
       </c>
       <c r="L7" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO7" t="n">
         <v>1.46</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AP7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>1.27</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1.35</v>
       </c>
     </row>
   </sheetData>
